--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
   </si>
   <si>
     <t>Epha7</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H2">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I2">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J2">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.231983347609583</v>
+        <v>0.014513</v>
       </c>
       <c r="N2">
-        <v>0.231983347609583</v>
+        <v>0.043539</v>
       </c>
       <c r="O2">
-        <v>0.10671913502428</v>
+        <v>0.006538124153480057</v>
       </c>
       <c r="P2">
-        <v>0.10671913502428</v>
+        <v>0.009244530017173054</v>
       </c>
       <c r="Q2">
-        <v>0.226733268933524</v>
+        <v>0.002499951328</v>
       </c>
       <c r="R2">
-        <v>0.226733268933524</v>
+        <v>0.022499561952</v>
       </c>
       <c r="S2">
-        <v>0.07078058074854472</v>
+        <v>0.0006590419076821792</v>
       </c>
       <c r="T2">
-        <v>0.07078058074854472</v>
+        <v>0.001032538593761573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,185 +584,681 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.977368726116951</v>
+        <v>0.172256</v>
       </c>
       <c r="H3">
-        <v>0.977368726116951</v>
+        <v>0.516768</v>
       </c>
       <c r="I3">
-        <v>0.6632417019913177</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J3">
-        <v>0.6632417019913177</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.94179127637705</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N3">
-        <v>1.94179127637705</v>
+        <v>0.726421</v>
       </c>
       <c r="O3">
-        <v>0.89328086497572</v>
+        <v>0.1090845147039467</v>
       </c>
       <c r="P3">
-        <v>0.89328086497572</v>
+        <v>0.154239204841748</v>
       </c>
       <c r="Q3">
-        <v>1.897846066177646</v>
+        <v>0.04171012525866667</v>
       </c>
       <c r="R3">
-        <v>1.897846066177646</v>
+        <v>0.375391127328</v>
       </c>
       <c r="S3">
-        <v>0.5924611212427731</v>
+        <v>0.0109957022811823</v>
       </c>
       <c r="T3">
-        <v>0.5924611212427731</v>
+        <v>0.01722726102618057</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.496255027007284</v>
+        <v>0.172256</v>
       </c>
       <c r="H4">
-        <v>0.496255027007284</v>
+        <v>0.516768</v>
       </c>
       <c r="I4">
-        <v>0.3367582980086823</v>
+        <v>0.1007998459820299</v>
       </c>
       <c r="J4">
-        <v>0.3367582980086823</v>
+        <v>0.1116918428350044</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.231983347609583</v>
+        <v>0.013551</v>
       </c>
       <c r="N4">
-        <v>0.231983347609583</v>
+        <v>0.040653</v>
       </c>
       <c r="O4">
-        <v>0.10671913502428</v>
+        <v>0.006104741983312083</v>
       </c>
       <c r="P4">
-        <v>0.10671913502428</v>
+        <v>0.008631752653669954</v>
       </c>
       <c r="Q4">
-        <v>0.1151229024332338</v>
+        <v>0.002334241056</v>
       </c>
       <c r="R4">
-        <v>0.1151229024332338</v>
+        <v>0.021008169504</v>
       </c>
       <c r="S4">
-        <v>0.03593855427573529</v>
+        <v>0.0006153570516778896</v>
       </c>
       <c r="T4">
-        <v>0.03593855427573529</v>
+        <v>0.0009640963607843369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.172256</v>
+      </c>
+      <c r="H5">
+        <v>0.516768</v>
+      </c>
+      <c r="I5">
+        <v>0.1007998459820299</v>
+      </c>
+      <c r="J5">
+        <v>0.1116918428350044</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.9495455</v>
+      </c>
+      <c r="N5">
+        <v>3.899091</v>
+      </c>
+      <c r="O5">
+        <v>0.878272619159261</v>
+      </c>
+      <c r="P5">
+        <v>0.827884512487409</v>
+      </c>
+      <c r="Q5">
+        <v>0.335820909648</v>
+      </c>
+      <c r="R5">
+        <v>2.014925457888</v>
+      </c>
+      <c r="S5">
+        <v>0.08852974474148749</v>
+      </c>
+      <c r="T5">
+        <v>0.09246794685427794</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.036691</v>
+      </c>
+      <c r="H6">
+        <v>3.110073</v>
+      </c>
+      <c r="I6">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J6">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.014513</v>
+      </c>
+      <c r="N6">
+        <v>0.043539</v>
+      </c>
+      <c r="O6">
+        <v>0.006538124153480057</v>
+      </c>
+      <c r="P6">
+        <v>0.009244530017173054</v>
+      </c>
+      <c r="Q6">
+        <v>0.015045496483</v>
+      </c>
+      <c r="R6">
+        <v>0.135409468347</v>
+      </c>
+      <c r="S6">
+        <v>0.003966322301208353</v>
+      </c>
+      <c r="T6">
+        <v>0.006214143294313575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.036691</v>
+      </c>
+      <c r="H7">
+        <v>3.110073</v>
+      </c>
+      <c r="I7">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J7">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2421403333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.726421</v>
+      </c>
+      <c r="O7">
+        <v>0.1090845147039467</v>
+      </c>
+      <c r="P7">
+        <v>0.154239204841748</v>
+      </c>
+      <c r="Q7">
+        <v>0.2510247043036666</v>
+      </c>
+      <c r="R7">
+        <v>2.259222338733</v>
+      </c>
+      <c r="S7">
+        <v>0.06617560835954141</v>
+      </c>
+      <c r="T7">
+        <v>0.1036790965800446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.036691</v>
+      </c>
+      <c r="H8">
+        <v>3.110073</v>
+      </c>
+      <c r="I8">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J8">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.013551</v>
+      </c>
+      <c r="N8">
+        <v>0.040653</v>
+      </c>
+      <c r="O8">
+        <v>0.006104741983312083</v>
+      </c>
+      <c r="P8">
+        <v>0.008631752653669954</v>
+      </c>
+      <c r="Q8">
+        <v>0.014048199741</v>
+      </c>
+      <c r="R8">
+        <v>0.126433797669</v>
+      </c>
+      <c r="S8">
+        <v>0.003703413043731441</v>
+      </c>
+      <c r="T8">
+        <v>0.005802236324760095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.036691</v>
+      </c>
+      <c r="H9">
+        <v>3.110073</v>
+      </c>
+      <c r="I9">
+        <v>0.6066453019398833</v>
+      </c>
+      <c r="J9">
+        <v>0.6721967782861762</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.9495455</v>
+      </c>
+      <c r="N9">
+        <v>3.899091</v>
+      </c>
+      <c r="O9">
+        <v>0.878272619159261</v>
+      </c>
+      <c r="P9">
+        <v>0.827884512487409</v>
+      </c>
+      <c r="Q9">
+        <v>2.0210762739405</v>
+      </c>
+      <c r="R9">
+        <v>12.126457643643</v>
+      </c>
+      <c r="S9">
+        <v>0.532799958235402</v>
+      </c>
+      <c r="T9">
+        <v>0.5565013020870579</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.4999445</v>
+      </c>
+      <c r="H10">
+        <v>0.999889</v>
+      </c>
+      <c r="I10">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J10">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.014513</v>
+      </c>
+      <c r="N10">
+        <v>0.043539</v>
+      </c>
+      <c r="O10">
+        <v>0.006538124153480057</v>
+      </c>
+      <c r="P10">
+        <v>0.009244530017173054</v>
+      </c>
+      <c r="Q10">
+        <v>0.0072556945285</v>
+      </c>
+      <c r="R10">
+        <v>0.043534167171</v>
+      </c>
+      <c r="S10">
+        <v>0.001912759944589525</v>
+      </c>
+      <c r="T10">
+        <v>0.001997848129097904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="H5">
-        <v>0.496255027007284</v>
-      </c>
-      <c r="I5">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="J5">
-        <v>0.3367582980086823</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1.94179127637705</v>
-      </c>
-      <c r="N5">
-        <v>1.94179127637705</v>
-      </c>
-      <c r="O5">
-        <v>0.89328086497572</v>
-      </c>
-      <c r="P5">
-        <v>0.89328086497572</v>
-      </c>
-      <c r="Q5">
-        <v>0.9636236823010015</v>
-      </c>
-      <c r="R5">
-        <v>0.9636236823010015</v>
-      </c>
-      <c r="S5">
-        <v>0.300819743732947</v>
-      </c>
-      <c r="T5">
-        <v>0.300819743732947</v>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.4999445</v>
+      </c>
+      <c r="H11">
+        <v>0.999889</v>
+      </c>
+      <c r="I11">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J11">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2421403333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.726421</v>
+      </c>
+      <c r="O11">
+        <v>0.1090845147039467</v>
+      </c>
+      <c r="P11">
+        <v>0.154239204841748</v>
+      </c>
+      <c r="Q11">
+        <v>0.1210567278781667</v>
+      </c>
+      <c r="R11">
+        <v>0.726340367269</v>
+      </c>
+      <c r="S11">
+        <v>0.03191320406322303</v>
+      </c>
+      <c r="T11">
+        <v>0.03333284723552283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.4999445</v>
+      </c>
+      <c r="H12">
+        <v>0.999889</v>
+      </c>
+      <c r="I12">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J12">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.013551</v>
+      </c>
+      <c r="N12">
+        <v>0.040653</v>
+      </c>
+      <c r="O12">
+        <v>0.006104741983312083</v>
+      </c>
+      <c r="P12">
+        <v>0.008631752653669954</v>
+      </c>
+      <c r="Q12">
+        <v>0.006774747919500001</v>
+      </c>
+      <c r="R12">
+        <v>0.040648487517</v>
+      </c>
+      <c r="S12">
+        <v>0.001785971887902753</v>
+      </c>
+      <c r="T12">
+        <v>0.001865419968125522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4999445</v>
+      </c>
+      <c r="H13">
+        <v>0.999889</v>
+      </c>
+      <c r="I13">
+        <v>0.2925548520780869</v>
+      </c>
+      <c r="J13">
+        <v>0.2161113788788194</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.9495455</v>
+      </c>
+      <c r="N13">
+        <v>3.899091</v>
+      </c>
+      <c r="O13">
+        <v>0.878272619159261</v>
+      </c>
+      <c r="P13">
+        <v>0.827884512487409</v>
+      </c>
+      <c r="Q13">
+        <v>0.9746645502247501</v>
+      </c>
+      <c r="R13">
+        <v>3.898658200899</v>
+      </c>
+      <c r="S13">
+        <v>0.2569429161823716</v>
+      </c>
+      <c r="T13">
+        <v>0.1789152635460731</v>
       </c>
     </row>
   </sheetData>
